--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1282418.921820878</v>
+        <v>1244382.305639602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779175</v>
+        <v>421727.3537779181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481808</v>
+        <v>7956703.636481809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730731.251006817</v>
+        <v>8730731.251006816</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>221.7026673587547</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>40.77082694055855</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>8.672776297487738</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>85.42474164057188</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>99.07907767104376</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>274.2838073416025</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>122.9440499788763</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>43.56448662291706</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>168.1572104236697</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>160.2040698085663</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>124.9360174033113</v>
+        <v>121.6758524388757</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.90756012708898</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>156.1466190479589</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>104.9100195643762</v>
       </c>
       <c r="T11" t="n">
         <v>217.5149286494106</v>
@@ -1429,13 +1429,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -1511,10 +1511,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383461</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>143.6597934514068</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>156.1466190479597</v>
+        <v>173.3741471843711</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
@@ -1672,10 +1672,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1739,7 +1739,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6974464808964</v>
+        <v>50.44110062625216</v>
       </c>
       <c r="U15" t="n">
         <v>224.6133508632724</v>
@@ -1754,7 +1754,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>58.41480556394239</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302025</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>169.1186764497906</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>119.0848486402663</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>175.6322887537071</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S18" t="n">
-        <v>64.66640004843251</v>
+        <v>11.33166980843063</v>
       </c>
       <c r="T18" t="n">
         <v>195.6974464808964</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6533237264606</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.51342957218347</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>63.64170646647291</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>108.0881465484995</v>
       </c>
       <c r="W20" t="n">
-        <v>295.760213672266</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>22.34031300679539</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6974464808964</v>
+        <v>50.44110062625216</v>
       </c>
       <c r="U21" t="n">
         <v>224.6133508632724</v>
@@ -2241,10 +2241,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>56.3734392368838</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>223.7099921680861</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>329.7002617923852</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.1759249712144</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647291</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>104.0288287853823</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2453,13 +2453,13 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6133508632724</v>
+        <v>214.7140569139525</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>158.0677311353585</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2535,10 +2535,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>50.42797305210077</v>
       </c>
       <c r="W25" t="n">
-        <v>83.58419887257712</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>294.4418671873431</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647291</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S26" t="n">
         <v>177.493467653868</v>
@@ -2611,19 +2611,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>326.9785294830136</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>22.34031300679584</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>143.4656465272897</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>86.48359754772635</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>313.6580881934775</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>334.0130649583189</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S29" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068186</v>
       </c>
       <c r="H30" t="n">
         <v>104.0288287853823</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2939,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.41480556394239</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>177.6533237264607</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
@@ -3043,10 +3043,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>177.8044687690164</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>190.2757276363057</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3167,13 +3167,13 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>59.20528375383461</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>99.49919196736985</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>13.07204123968297</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>127.01033347036</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647291</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
@@ -3322,10 +3322,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>148.4451249578412</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>22.34031300679584</v>
+        <v>22.34031300679539</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.27321674684076</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>143.4656465272898</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>63.64170646647291</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>93.41153743527431</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>305.6451056641467</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>83.68360983175823</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3602,7 +3602,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>53.33473024000173</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843063</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>61.31185085954359</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.4624989353423</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687119</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>313.3712938016131</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647291</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>35.57675727759764</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
@@ -3805,7 +3805,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3872,10 +3872,10 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6974464808964</v>
+        <v>50.44110062625216</v>
       </c>
       <c r="U42" t="n">
-        <v>79.35700500862873</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3915,7 +3915,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>72.59640537899617</v>
       </c>
       <c r="S43" t="n">
-        <v>10.51636646124574</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.9462130081922</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.8796657765386</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.08315982662468</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570061</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -4106,7 +4106,7 @@
         <v>53.33473024000173</v>
       </c>
       <c r="S45" t="n">
-        <v>11.33166980843108</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.11422025213434</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>104.9695386357291</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>745.907174392252</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C2" t="n">
-        <v>521.9650861510856</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D2" t="n">
-        <v>521.9650861510856</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E2" t="n">
-        <v>521.9650861510856</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F2" t="n">
-        <v>244.9107353009821</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>745.907174392252</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U2" t="n">
-        <v>745.907174392252</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V2" t="n">
-        <v>745.907174392252</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W2" t="n">
-        <v>745.907174392252</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X2" t="n">
-        <v>745.907174392252</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y2" t="n">
-        <v>745.907174392252</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.4561997639835</v>
+        <v>843.80506042609</v>
       </c>
       <c r="C3" t="n">
-        <v>30.70308468580066</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>523.463638706851</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4424,10 +4424,10 @@
         <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>959.7375174702549</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4439,22 +4439,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>662.4975900250727</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>409.983098358406</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>203.4561997639835</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.4561997639835</v>
+        <v>1010.84761154765</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>676.7972192224911</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C5" t="n">
-        <v>676.7972192224911</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D5" t="n">
-        <v>676.7972192224911</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E5" t="n">
         <v>576.7173427870933</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725947</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725947</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8515700725947</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8515700725947</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.8373438740774</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C6" t="n">
-        <v>345.0842287958946</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D6" t="n">
-        <v>345.0842287958946</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E6" t="n">
-        <v>345.0842287958946</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F6" t="n">
-        <v>345.0842287958946</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G6" t="n">
         <v>220.8983197263226</v>
@@ -4646,22 +4646,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>548.9545891439176</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N6" t="n">
-        <v>820.4955584121041</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="O6" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1053.130697424069</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>882.4624005496812</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>682.0760046827431</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>455.1495632007217</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="X6" t="n">
-        <v>890.6083307719874</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.8798949956379</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="I7" t="n">
         <v>21.9427045873282</v>
@@ -4749,28 +4749,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>177.254368019049</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>468.8528235421487</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="C8" t="n">
-        <v>468.8528235421487</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="D8" t="n">
-        <v>468.8528235421487</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="E8" t="n">
-        <v>468.8528235421487</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="F8" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y8" t="n">
-        <v>468.8528235421487</v>
+        <v>584.0848816563265</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>484.4934991287</v>
+        <v>144.847606040738</v>
       </c>
       <c r="C9" t="n">
-        <v>484.4934991287</v>
+        <v>144.847606040738</v>
       </c>
       <c r="D9" t="n">
-        <v>484.4934991287</v>
+        <v>144.847606040738</v>
       </c>
       <c r="E9" t="n">
-        <v>484.4934991287</v>
+        <v>144.847606040738</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>545.8456222469288</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>817.3865915151152</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O9" t="n">
-        <v>817.3865915151152</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>896.7488334994721</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U9" t="n">
-        <v>896.7488334994721</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="V9" t="n">
-        <v>896.7488334994721</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="W9" t="n">
-        <v>896.7488334994721</v>
+        <v>351.3745046351605</v>
       </c>
       <c r="X9" t="n">
-        <v>690.2219349050496</v>
+        <v>144.847606040738</v>
       </c>
       <c r="Y9" t="n">
-        <v>484.4934991287</v>
+        <v>144.847606040738</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D10" t="n">
-        <v>52.15236128135749</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4986,28 +4986,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>367.2480923965821</v>
+        <v>1177.787165344879</v>
       </c>
       <c r="C11" t="n">
-        <v>367.2480923965821</v>
+        <v>1177.787165344879</v>
       </c>
       <c r="D11" t="n">
-        <v>367.2480923965821</v>
+        <v>1177.787165344879</v>
       </c>
       <c r="E11" t="n">
-        <v>367.2480923965821</v>
+        <v>790.7992504405483</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2480923965821</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G11" t="n">
-        <v>367.2480923965821</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I11" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370289</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P11" t="n">
-        <v>2398.446208459429</v>
+        <v>2398.44620845943</v>
       </c>
       <c r="Q11" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R11" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.00071659582</v>
+        <v>2429.601882813967</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2209.889833673149</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.371334220299</v>
+        <v>1955.972500438446</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308663</v>
+        <v>1955.972500438446</v>
       </c>
       <c r="W11" t="n">
-        <v>1132.448770055577</v>
+        <v>1955.972500438446</v>
       </c>
       <c r="X11" t="n">
-        <v>757.8410941655072</v>
+        <v>1955.972500438446</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.2480923965821</v>
+        <v>1565.379498669521</v>
       </c>
     </row>
     <row r="12">
@@ -5114,52 +5114,52 @@
         <v>220.0009863964076</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9669871305368</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>573.2392624551985</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1620.913172155678</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711751</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2370.209254145838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.698134656769</v>
+        <v>2481.69813465677</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865784</v>
+        <v>2323.528421865785</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2125.854233501243</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>1898.972060912079</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1664.72081743768</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771013</v>
       </c>
       <c r="X12" t="n">
         <v>1352.403008847948</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F13" t="n">
-        <v>566.1832505730705</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J13" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K13" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L13" t="n">
-        <v>219.6093352368815</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O13" t="n">
-        <v>606.6105655578849</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q13" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R13" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S13" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T13" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591335</v>
+        <v>195.8223344670817</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>367.248092396583</v>
+        <v>744.8564367309364</v>
       </c>
       <c r="C14" t="n">
-        <v>367.248092396583</v>
+        <v>744.8564367309364</v>
       </c>
       <c r="D14" t="n">
-        <v>367.248092396583</v>
+        <v>384.6496359687158</v>
       </c>
       <c r="E14" t="n">
-        <v>367.248092396583</v>
+        <v>384.6496359687158</v>
       </c>
       <c r="F14" t="n">
-        <v>367.248092396583</v>
+        <v>384.6496359687158</v>
       </c>
       <c r="G14" t="n">
-        <v>367.248092396583</v>
+        <v>384.6496359687158</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723813</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I14" t="n">
         <v>50.7114319909132</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072482</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L14" t="n">
-        <v>829.726164853583</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.636576300463</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.423100897412</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P14" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q14" t="n">
         <v>2535.57159954566</v>
@@ -5305,25 +5305,25 @@
         <v>2471.287047559324</v>
       </c>
       <c r="S14" t="n">
-        <v>2292.000716595821</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
         <v>2072.288667455002</v>
       </c>
       <c r="U14" t="n">
-        <v>1818.3713342203</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.519595308664</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W14" t="n">
         <v>1132.448770055578</v>
       </c>
       <c r="X14" t="n">
-        <v>757.8410941655081</v>
+        <v>1132.448770055578</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.248092396583</v>
+        <v>1132.448770055578</v>
       </c>
     </row>
     <row r="15">
@@ -5357,49 +5357,49 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690885</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305377</v>
+        <v>347.3293325303598</v>
       </c>
       <c r="L15" t="n">
-        <v>573.2392624551994</v>
+        <v>738.6016078550215</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712846</v>
+        <v>1247.998092112668</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155678</v>
+        <v>1786.2755175555</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145838</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501243</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912079</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.72081743768</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771013</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.679427176591</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y15" t="n">
         <v>1146.674573071598</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J16" t="n">
         <v>50.7114319909132</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591336</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591336</v>
+        <v>508.7151502502542</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591336</v>
+        <v>508.7151502502542</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591336</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2114.594364319349</v>
+        <v>1111.911919418593</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>741.2199035812774</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>741.2199035812774</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>741.2199035812774</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>329.8119606716402</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H17" t="n">
         <v>209.5242347723812</v>
@@ -5515,10 +5515,10 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L17" t="n">
         <v>829.7261648535823</v>
@@ -5527,7 +5527,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5545,22 +5545,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T17" t="n">
-        <v>2114.594364319349</v>
+        <v>2072.288667455002</v>
       </c>
       <c r="U17" t="n">
-        <v>2114.594364319349</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V17" t="n">
-        <v>2114.594364319349</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W17" t="n">
-        <v>2114.594364319349</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="X17" t="n">
-        <v>2114.594364319349</v>
+        <v>1111.911919418593</v>
       </c>
       <c r="Y17" t="n">
-        <v>2114.594364319349</v>
+        <v>1111.911919418593</v>
       </c>
     </row>
     <row r="18">
@@ -5594,31 +5594,31 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J18" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305378</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L18" t="n">
-        <v>573.2392624551994</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712846</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R18" t="n">
-        <v>2535.57159954566</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S18" t="n">
         <v>2470.252003537142</v>
@@ -5679,46 +5679,46 @@
         <v>100.3216812543103</v>
       </c>
       <c r="L19" t="n">
-        <v>219.6093352368815</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N19" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O19" t="n">
-        <v>606.6105655578849</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P19" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q19" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R19" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S19" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T19" t="n">
-        <v>679.5420961591335</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="U19" t="n">
-        <v>679.5420961591335</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V19" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W19" t="n">
-        <v>679.5420961591335</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="X19" t="n">
-        <v>451.1174901669019</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="Y19" t="n">
-        <v>230.1592337348128</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>797.1789029616918</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C20" t="n">
-        <v>797.1789029616918</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D20" t="n">
-        <v>797.1789029616918</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E20" t="n">
-        <v>797.1789029616918</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
-        <v>797.1789029616918</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H20" t="n">
         <v>50.7114319909132</v>
@@ -5758,7 +5758,7 @@
         <v>432.7629010724811</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5779,25 +5779,25 @@
         <v>2471.287047559324</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455002</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.519595308663</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="W20" t="n">
-        <v>1187.771904730617</v>
+        <v>2362.107101550738</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.771904730617</v>
+        <v>1987.499425660668</v>
       </c>
       <c r="Y20" t="n">
-        <v>797.1789029616918</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>832.9084402786802</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C21" t="n">
-        <v>660.1553252004974</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D21" t="n">
-        <v>512.5670185594413</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E21" t="n">
-        <v>354.957489562296</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F21" t="n">
-        <v>210.0016995789129</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G21" t="n">
-        <v>73.27740472504996</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>50.7114319909132</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.7114319909132</v>
@@ -5861,22 +5861,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2125.854233501243</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U21" t="n">
-        <v>1898.972060912079</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771013</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.9509914002407</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>276.6811210495861</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C22" t="n">
-        <v>107.6542999069574</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D22" t="n">
         <v>50.7114319909132</v>
@@ -5952,10 +5952,10 @@
         <v>679.5420961591336</v>
       </c>
       <c r="X22" t="n">
-        <v>679.5420961591336</v>
+        <v>453.5724071004607</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.5838397270445</v>
+        <v>232.6141506683716</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1310.088658240291</v>
+        <v>1559.209525630396</v>
       </c>
       <c r="C23" t="n">
-        <v>1310.088658240291</v>
+        <v>1188.517509793081</v>
       </c>
       <c r="D23" t="n">
-        <v>949.8818574780701</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E23" t="n">
-        <v>949.8818574780701</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F23" t="n">
-        <v>949.8818574780701</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
-        <v>532.0942620472894</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H23" t="n">
-        <v>203.4143865072915</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I23" t="n">
         <v>50.7114319909132</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535828</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6007,34 +6007,34 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P23" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q23" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559324</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.000716595821</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455002</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="U23" t="n">
-        <v>2072.288667455002</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V23" t="n">
-        <v>2072.288667455002</v>
+        <v>1949.802527399321</v>
       </c>
       <c r="W23" t="n">
-        <v>2072.288667455002</v>
+        <v>1949.802527399321</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.680991564932</v>
+        <v>1949.802527399321</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.680991564932</v>
+        <v>1559.209525630396</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.6320219500381</v>
+        <v>842.907727096175</v>
       </c>
       <c r="C24" t="n">
-        <v>806.8789068718552</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D24" t="n">
-        <v>659.290600230799</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G24" t="n">
         <v>220.0009863964076</v>
@@ -6068,52 +6068,52 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J24" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.148936081493</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061547</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R24" t="n">
-        <v>2535.57159954566</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S24" t="n">
-        <v>2377.401886754676</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2179.727698390134</v>
+        <v>2125.854233501243</v>
       </c>
       <c r="U24" t="n">
-        <v>1952.84552580097</v>
+        <v>1908.971347729573</v>
       </c>
       <c r="V24" t="n">
-        <v>1718.594282326571</v>
+        <v>1674.720104255174</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.92990744237</v>
+        <v>1422.205612588507</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.403008847948</v>
+        <v>1215.678713994085</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.674573071598</v>
+        <v>1009.950278217735</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K25" t="n">
-        <v>1956.351184640837</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L25" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M25" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N25" t="n">
-        <v>2350.267656248477</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O25" t="n">
-        <v>2462.640068944412</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R25" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S25" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T25" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="U25" t="n">
-        <v>2246.660682791093</v>
+        <v>390.631179404566</v>
       </c>
       <c r="V25" t="n">
-        <v>1991.169419087114</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="X25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="Y25" t="n">
-        <v>1906.74093537744</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1367.399648652797</v>
+        <v>708.3342602150965</v>
       </c>
       <c r="C26" t="n">
-        <v>1367.399648652797</v>
+        <v>708.3342602150965</v>
       </c>
       <c r="D26" t="n">
-        <v>1367.399648652797</v>
+        <v>348.1274594528759</v>
       </c>
       <c r="E26" t="n">
-        <v>1367.399648652797</v>
+        <v>348.1274594528759</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>348.1274594528759</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370298</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724814</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6244,34 +6244,34 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P26" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q26" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2471.287047559324</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.000716595821</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455002</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U26" t="n">
-        <v>2072.288667455002</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V26" t="n">
-        <v>2072.288667455002</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W26" t="n">
-        <v>2072.288667455002</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.680991564932</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1367.399648652797</v>
+        <v>1095.926593539738</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>832.9084402786807</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>660.1553252004978</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>512.5670185594417</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>354.9574895622965</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>210.0016995789133</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>73.27740472505042</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T27" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1664.72081743768</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1412.206325771013</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1205.679427176591</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>999.9509914002412</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="C28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="D28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="E28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="F28" t="n">
-        <v>195.6262264629231</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G28" t="n">
-        <v>50.7114319909132</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H28" t="n">
-        <v>50.7114319909132</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I28" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J28" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K28" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L28" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M28" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O28" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P28" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q28" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>679.5420961591336</v>
+        <v>592.1849269190059</v>
       </c>
       <c r="U28" t="n">
-        <v>679.5420961591336</v>
+        <v>592.1849269190059</v>
       </c>
       <c r="V28" t="n">
-        <v>424.0508324551546</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="W28" t="n">
-        <v>424.0508324551546</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="X28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
       <c r="Y28" t="n">
-        <v>195.6262264629231</v>
+        <v>336.6936632150269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1196.733322041915</v>
+        <v>1917.39304070575</v>
       </c>
       <c r="C29" t="n">
-        <v>1196.733322041915</v>
+        <v>1546.701024868434</v>
       </c>
       <c r="D29" t="n">
-        <v>1196.733322041915</v>
+        <v>1186.494224106214</v>
       </c>
       <c r="E29" t="n">
-        <v>879.9069703313312</v>
+        <v>799.5063092018827</v>
       </c>
       <c r="F29" t="n">
-        <v>468.4990274216939</v>
+        <v>388.0983662922454</v>
       </c>
       <c r="G29" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L29" t="n">
         <v>829.7261648535821</v>
@@ -6484,31 +6484,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q29" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2356.285268582157</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T29" t="n">
-        <v>2136.573219441339</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U29" t="n">
-        <v>1882.655886206636</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V29" t="n">
-        <v>1550.804147295</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="W29" t="n">
-        <v>1196.733322041915</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="X29" t="n">
-        <v>1196.733322041915</v>
+        <v>1917.39304070575</v>
       </c>
       <c r="Y29" t="n">
-        <v>1196.733322041915</v>
+        <v>1917.39304070575</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G30" t="n">
         <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I30" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2481.69813465677</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S30" t="n">
-        <v>2323.528421865785</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T30" t="n">
-        <v>2125.854233501243</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.972060912079</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V30" t="n">
-        <v>1664.72081743768</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W30" t="n">
-        <v>1412.206325771013</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.679427176591</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.7114319909132</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C31" t="n">
-        <v>50.7114319909132</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D31" t="n">
-        <v>50.7114319909132</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E31" t="n">
-        <v>50.7114319909132</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F31" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H31" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K31" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L31" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M31" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W31" t="n">
-        <v>500.0942944152339</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X31" t="n">
-        <v>271.6696884230023</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.7114319909132</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>849.1072898048812</v>
+        <v>1955.781561537881</v>
       </c>
       <c r="C32" t="n">
-        <v>849.1072898048812</v>
+        <v>1955.781561537881</v>
       </c>
       <c r="D32" t="n">
-        <v>849.1072898048812</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F32" t="n">
-        <v>50.7114319909132</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G32" t="n">
-        <v>50.7114319909132</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H32" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370298</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724818</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535828</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M32" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P32" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q32" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>2355.971126041603</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>2001.900300788518</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X32" t="n">
-        <v>1627.292624898448</v>
+        <v>2343.373894862522</v>
       </c>
       <c r="Y32" t="n">
-        <v>1236.699623129523</v>
+        <v>2343.373894862522</v>
       </c>
     </row>
     <row r="33">
@@ -6773,52 +6773,52 @@
         <v>220.0009863964076</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I33" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R33" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1664.72081743768</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W33" t="n">
-        <v>1412.206325771013</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X33" t="n">
         <v>1352.403008847948</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>458.5838397270445</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="C34" t="n">
-        <v>458.5838397270445</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="D34" t="n">
-        <v>458.5838397270445</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="E34" t="n">
-        <v>458.5838397270445</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F34" t="n">
-        <v>458.5838397270445</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G34" t="n">
-        <v>289.5625223640828</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H34" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I34" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J34" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K34" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L34" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M34" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591336</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="U34" t="n">
-        <v>679.5420961591336</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="V34" t="n">
-        <v>679.5420961591336</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="W34" t="n">
-        <v>679.5420961591336</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="X34" t="n">
-        <v>679.5420961591336</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.5838397270445</v>
+        <v>666.3380140988477</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>437.699346895244</v>
+        <v>983.7802084577015</v>
       </c>
       <c r="C35" t="n">
-        <v>437.699346895244</v>
+        <v>983.7802084577015</v>
       </c>
       <c r="D35" t="n">
-        <v>437.699346895244</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E35" t="n">
-        <v>50.7114319909132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F35" t="n">
-        <v>50.7114319909132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G35" t="n">
         <v>50.7114319909132</v>
@@ -6937,13 +6937,13 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370298</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724818</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535828</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6955,34 +6955,34 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P35" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q35" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R35" t="n">
-        <v>2471.287047559324</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S35" t="n">
-        <v>2292.000716595821</v>
+        <v>2356.285268582157</v>
       </c>
       <c r="T35" t="n">
-        <v>2072.288667455002</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U35" t="n">
-        <v>1922.344096790516</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V35" t="n">
-        <v>1590.492357878881</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W35" t="n">
-        <v>1590.492357878881</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="X35" t="n">
-        <v>1215.88468198881</v>
+        <v>1761.965543551268</v>
       </c>
       <c r="Y35" t="n">
-        <v>825.2916802198854</v>
+        <v>1371.372541782343</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786807</v>
+        <v>832.9084402786802</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004978</v>
+        <v>660.1553252004974</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594417</v>
+        <v>512.5670185594413</v>
       </c>
       <c r="E36" t="n">
-        <v>354.9574895622965</v>
+        <v>354.957489562296</v>
       </c>
       <c r="F36" t="n">
-        <v>210.0016995789133</v>
+        <v>210.0016995789129</v>
       </c>
       <c r="G36" t="n">
-        <v>73.27740472505042</v>
+        <v>73.27740472504996</v>
       </c>
       <c r="H36" t="n">
         <v>50.7114319909132</v>
@@ -7016,16 +7016,16 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J36" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9669871305377</v>
+        <v>366.148936081493</v>
       </c>
       <c r="L36" t="n">
-        <v>573.2392624551994</v>
+        <v>757.4212114061547</v>
       </c>
       <c r="M36" t="n">
-        <v>1082.635746712846</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
         <v>1620.913172155678</v>
@@ -7040,10 +7040,10 @@
         <v>2535.57159954566</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T36" t="n">
         <v>2125.854233501243</v>
@@ -7052,16 +7052,16 @@
         <v>1898.972060912079</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.72081743768</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W36" t="n">
         <v>1412.206325771013</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.679427176591</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002412</v>
+        <v>999.9509914002407</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>451.3135981710607</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C37" t="n">
-        <v>451.3135981710607</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D37" t="n">
-        <v>300.8029249240714</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E37" t="n">
-        <v>300.8029249240714</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F37" t="n">
-        <v>300.8029249240714</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G37" t="n">
-        <v>300.8029249240714</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H37" t="n">
-        <v>238.9107867959494</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I37" t="n">
-        <v>100.5639307332544</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J37" t="n">
         <v>50.7114319909132</v>
@@ -7119,28 +7119,28 @@
         <v>679.5420961591336</v>
       </c>
       <c r="R37" t="n">
-        <v>679.5420961591336</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="S37" t="n">
-        <v>679.5420961591336</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="T37" t="n">
-        <v>451.3135981710607</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="U37" t="n">
-        <v>451.3135981710607</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="V37" t="n">
-        <v>451.3135981710607</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W37" t="n">
-        <v>451.3135981710607</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X37" t="n">
-        <v>451.3135981710607</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="Y37" t="n">
-        <v>451.3135981710607</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1177.787165344879</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.787165344879</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.787165344879</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E38" t="n">
-        <v>790.7992504405483</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>379.3913075309111</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>379.3913075309111</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H38" t="n">
         <v>50.7114319909132</v>
@@ -7174,13 +7174,13 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535823</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7192,7 +7192,7 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P38" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q38" t="n">
         <v>2535.57159954566</v>
@@ -7201,25 +7201,25 @@
         <v>2471.287047559324</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.000716595821</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455002</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="U38" t="n">
-        <v>1818.3713342203</v>
+        <v>2376.931959240865</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.519595308664</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="W38" t="n">
-        <v>1177.787165344879</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="X38" t="n">
-        <v>1177.787165344879</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y38" t="n">
-        <v>1177.787165344879</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C39" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D39" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E39" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F39" t="n">
-        <v>292.5153518805159</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
-        <v>155.791057026653</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H39" t="n">
-        <v>50.7114319909132</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I39" t="n">
         <v>50.7114319909132</v>
@@ -7256,49 +7256,49 @@
         <v>50.7114319909132</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305377</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L39" t="n">
-        <v>573.2392624551994</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.635746712846</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N39" t="n">
-        <v>1620.913172155678</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O39" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.209254145838</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R39" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2323.528421865785</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T39" t="n">
-        <v>2125.854233501243</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U39" t="n">
-        <v>1898.972060912079</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V39" t="n">
-        <v>1664.72081743768</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W39" t="n">
-        <v>1412.206325771013</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X39" t="n">
-        <v>1205.679427176591</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y39" t="n">
-        <v>999.9509914002412</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="C40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="D40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="E40" t="n">
-        <v>281.6639118382624</v>
+        <v>302.8543818344958</v>
       </c>
       <c r="F40" t="n">
-        <v>219.7327493538749</v>
+        <v>155.2190066730771</v>
       </c>
       <c r="G40" t="n">
-        <v>50.7114319909132</v>
+        <v>155.2190066730771</v>
       </c>
       <c r="H40" t="n">
         <v>50.7114319909132</v>
@@ -7353,31 +7353,31 @@
         <v>679.5420961591336</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865365</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452315</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S40" t="n">
-        <v>281.6639118382624</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="U40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="V40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="W40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="X40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
       <c r="Y40" t="n">
-        <v>281.6639118382624</v>
+        <v>451.3135981710607</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>367.248092396583</v>
+        <v>781.6102485904496</v>
       </c>
       <c r="C41" t="n">
-        <v>367.248092396583</v>
+        <v>410.9182327531338</v>
       </c>
       <c r="D41" t="n">
-        <v>367.248092396583</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E41" t="n">
-        <v>367.248092396583</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F41" t="n">
-        <v>367.248092396583</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G41" t="n">
-        <v>367.248092396583</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H41" t="n">
         <v>50.7114319909132</v>
@@ -7417,7 +7417,7 @@
         <v>432.7629010724811</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
@@ -7435,28 +7435,28 @@
         <v>2535.57159954566</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559324</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.000716595821</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="T41" t="n">
-        <v>2072.288667455002</v>
+        <v>2499.63548108344</v>
       </c>
       <c r="U41" t="n">
-        <v>1818.3713342203</v>
+        <v>2245.718147848737</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.519595308664</v>
+        <v>1913.866408937101</v>
       </c>
       <c r="W41" t="n">
-        <v>1132.448770055578</v>
+        <v>1559.795583684016</v>
       </c>
       <c r="X41" t="n">
-        <v>757.8410941655081</v>
+        <v>1559.795583684016</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.248092396583</v>
+        <v>1169.202581915091</v>
       </c>
     </row>
     <row r="42">
@@ -7490,37 +7490,37 @@
         <v>50.7114319909132</v>
       </c>
       <c r="J42" t="n">
-        <v>101.593116369089</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K42" t="n">
-        <v>347.3293325303603</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L42" t="n">
-        <v>738.6016078550219</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.998092112668</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.2755175555</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O42" t="n">
-        <v>2211.066182111575</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.57159954566</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501243</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U42" t="n">
         <v>2045.695642583436</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="C43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="D43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="E43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="F43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G43" t="n">
-        <v>50.7114319909132</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H43" t="n">
         <v>50.7114319909132</v>
@@ -7593,28 +7593,28 @@
         <v>679.5420961591336</v>
       </c>
       <c r="R43" t="n">
-        <v>679.5420961591336</v>
+        <v>606.2123937561072</v>
       </c>
       <c r="S43" t="n">
-        <v>668.9195037740369</v>
+        <v>606.2123937561072</v>
       </c>
       <c r="T43" t="n">
-        <v>440.691005785964</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="U43" t="n">
-        <v>440.691005785964</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="V43" t="n">
-        <v>440.691005785964</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="W43" t="n">
-        <v>440.691005785964</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="X43" t="n">
-        <v>440.691005785964</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.403447828229</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C44" t="n">
-        <v>50.7114319909132</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="D44" t="n">
-        <v>50.7114319909132</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="E44" t="n">
-        <v>50.7114319909132</v>
+        <v>931.5061216713561</v>
       </c>
       <c r="F44" t="n">
-        <v>50.7114319909132</v>
+        <v>520.0981787617188</v>
       </c>
       <c r="G44" t="n">
-        <v>50.7114319909132</v>
+        <v>102.3105833309381</v>
       </c>
       <c r="H44" t="n">
-        <v>50.7114319909132</v>
+        <v>102.3105833309381</v>
       </c>
       <c r="I44" t="n">
         <v>50.7114319909132</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370292</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724814</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7666,7 +7666,7 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P44" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q44" t="n">
         <v>2535.57159954566</v>
@@ -7678,22 +7678,22 @@
         <v>2471.287047559324</v>
       </c>
       <c r="T44" t="n">
-        <v>2251.574998418505</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="U44" t="n">
-        <v>1997.657665183803</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="V44" t="n">
-        <v>1665.805926272167</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.735101019081</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="X44" t="n">
-        <v>937.1274251290113</v>
+        <v>2096.679371669254</v>
       </c>
       <c r="Y44" t="n">
-        <v>546.5344233600862</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="45">
@@ -7730,49 +7730,49 @@
         <v>50.7114319909132</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305377</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>573.2392624551994</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712846</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N45" t="n">
-        <v>1620.913172155678</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O45" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.209254145838</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.57159954566</v>
       </c>
       <c r="R45" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501243</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912079</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771013</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002407</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="C46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="D46" t="n">
-        <v>654.1741969145535</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="E46" t="n">
-        <v>505.7149805779886</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="F46" t="n">
-        <v>358.07960541657</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G46" t="n">
-        <v>189.0582880536082</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I46" t="n">
         <v>50.7114319909132</v>
@@ -7830,28 +7830,28 @@
         <v>679.5420961591336</v>
       </c>
       <c r="R46" t="n">
-        <v>679.5420961591336</v>
+        <v>529.7646791178287</v>
       </c>
       <c r="S46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="T46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="U46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="V46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="W46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="X46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
       <c r="Y46" t="n">
-        <v>679.5420961591336</v>
+        <v>314.9924154108595</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8072,13 +8072,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P3" t="n">
-        <v>269.4106148008457</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,10 +8294,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
@@ -8306,13 +8306,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>358.992471844272</v>
       </c>
       <c r="P6" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8531,7 +8531,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
@@ -8540,16 +8540,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>276.5436670734947</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128933</v>
       </c>
       <c r="K12" t="n">
-        <v>89.00147381534831</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>498.5160693172957</v>
+        <v>382.8790379822989</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>112.124976197325</v>
       </c>
       <c r="K15" t="n">
-        <v>89.00147381534921</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425044</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4068151580852</v>
+        <v>89.00147381534873</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128933</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078014</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.8433479102868</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128933</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.8433479102868</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128933</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.8433479102868</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128933</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.8433479102868</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128933</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>159.406815158085</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395631</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10904,7 +10904,7 @@
         <v>60.72933541128933</v>
       </c>
       <c r="K39" t="n">
-        <v>159.406815158085</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>102.8433479102864</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11080,7 +11080,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863004</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>112.1249761973255</v>
+        <v>60.72933541128933</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44770712425044</v>
+        <v>102.8433479102864</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789565</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740116</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11378,7 +11378,7 @@
         <v>60.72933541128933</v>
       </c>
       <c r="K45" t="n">
-        <v>159.406815158085</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>102.8433479102864</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23266,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>169.246457736639</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.58344808949185</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>145.2563458546437</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R13" t="n">
         <v>148.2796428708918</v>
@@ -23469,16 +23469,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>142.4327834360087</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -23512,7 +23512,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2464577366381</v>
+        <v>152.0189296002268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>145.2563458546443</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.2563458546436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.933764279602</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
@@ -23709,13 +23709,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>116.9031311372313</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,22 +23734,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>294.5248708362066</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>41.88263989570348</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.92161561464238</v>
+        <v>145.2563458546443</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.430367764223206</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23943,22 +23943,22 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>142.4327834360087</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>220.4450749740198</v>
       </c>
       <c r="W20" t="n">
-        <v>54.76990332828854</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>81.68851577858695</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>145.2563458546443</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>92.63212727763556</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -24192,7 +24192,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>2.430367764223121</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>26.90447096221317</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>6.048749782438932</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>9.899293949319912</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>91.92161561464158</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>202.5083780148384</v>
       </c>
       <c r="W25" t="n">
-        <v>202.5083780148384</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>119.1678522891298</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.70854226822223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>81.68851577858651</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
         <v>63.56783007605711</v>
@@ -24612,16 +24612,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.86545766204234</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I28" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>49.3539737549178</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687119</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R28" t="n">
         <v>148.2796428708918</v>
@@ -24654,7 +24654,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>139.4626154604658</v>
       </c>
       <c r="U28" t="n">
         <v>286.0218075870219</v>
@@ -24666,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24682,19 +24682,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>69.45994756180994</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>79.59665451815397</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647291</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>91.92161561464243</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.2563458546436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>95.73104835770384</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687119</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R31" t="n">
         <v>148.2796428708918</v>
@@ -24894,19 +24894,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>108.4392531609548</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>157.2246747536534</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647291</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S32" t="n">
         <v>177.493467653868</v>
@@ -24976,16 +24976,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>150.728752753503</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>180.5858714948637</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>145.2563458546437</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.16944298264789</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
         <v>49.3539737549178</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687119</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
@@ -25128,7 +25128,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>212.8741717685092</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>229.5943992842384</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.9330349445146</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>81.68851577858651</v>
+        <v>81.68851577858695</v>
       </c>
       <c r="I36" t="n">
         <v>63.56783007605711</v>
@@ -25317,7 +25317,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -25329,13 +25329,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>95.39541820317699</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687119</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>4.813996343602014</v>
       </c>
       <c r="S37" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
         <v>157.2246747536534</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>157.9666224670815</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>44.88501133640784</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>81.68851577858659</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.2563458546443</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.8471705502609</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>53.20613601467547</v>
       </c>
       <c r="I40" t="n">
         <v>136.9633875020681</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.0218075870219</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
@@ -25645,7 +25645,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>12.02178298298475</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>181.9381713718129</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>145.2563458546443</v>
       </c>
       <c r="U42" t="n">
-        <v>145.2563458546437</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>136.9633875020681</v>
@@ -25833,10 +25833,10 @@
         <v>32.99521853687119</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>75.68323749189568</v>
       </c>
       <c r="S43" t="n">
-        <v>202.1081746086537</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.8367442148564</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>106.1415149270287</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>145.2563458546442</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.2563458546438</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>123.891346262385</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.18948277407539</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>49.3539737549178</v>
@@ -26070,10 +26070,10 @@
         <v>32.99521853687119</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.9462130081922</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681309.7576719987</v>
+        <v>681309.757671999</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681309.7576719988</v>
+        <v>681309.757671999</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681309.7576719988</v>
+        <v>681309.757671999</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719988</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681309.757671999</v>
+        <v>681309.7576719988</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681309.7576719988</v>
+        <v>681309.7576719989</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719987</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719988</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719987</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719987</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681309.7576719989</v>
+        <v>681309.7576719987</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>508699.6303843353</v>
       </c>
       <c r="C2" t="n">
-        <v>508699.6303843353</v>
+        <v>508699.6303843352</v>
       </c>
       <c r="D2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="E2" t="n">
+        <v>342934.9712909641</v>
+      </c>
+      <c r="F2" t="n">
         <v>342934.971290964</v>
-      </c>
-      <c r="F2" t="n">
-        <v>342934.9712909642</v>
       </c>
       <c r="G2" t="n">
         <v>342934.9712909641</v>
@@ -26334,28 +26334,28 @@
         <v>342934.9712909642</v>
       </c>
       <c r="I2" t="n">
-        <v>342934.971290964</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="J2" t="n">
         <v>342934.9712909641</v>
       </c>
       <c r="K2" t="n">
+        <v>342934.971290964</v>
+      </c>
+      <c r="L2" t="n">
         <v>342934.9712909641</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>342934.9712909642</v>
       </c>
-      <c r="M2" t="n">
-        <v>342934.9712909641</v>
-      </c>
       <c r="N2" t="n">
-        <v>342934.9712909641</v>
+        <v>342934.9712909642</v>
       </c>
       <c r="O2" t="n">
         <v>342934.9712909641</v>
       </c>
       <c r="P2" t="n">
-        <v>342934.971290964</v>
+        <v>342934.9712909641</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356189.4298866802</v>
+        <v>356189.4298866803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808622</v>
+        <v>71764.71248808606</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>328164.7953523264</v>
       </c>
       <c r="C4" t="n">
-        <v>328164.7953523264</v>
+        <v>328164.7953523265</v>
       </c>
       <c r="D4" t="n">
-        <v>328164.7953523264</v>
+        <v>328164.7953523265</v>
       </c>
       <c r="E4" t="n">
+        <v>64508.99855490231</v>
+      </c>
+      <c r="F4" t="n">
         <v>64508.9985549023</v>
       </c>
-      <c r="F4" t="n">
-        <v>64508.99855490231</v>
-      </c>
       <c r="G4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="H4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="I4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="J4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="K4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="L4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="M4" t="n">
         <v>64508.99855490231</v>
@@ -26456,7 +26456,7 @@
         <v>64508.99855490231</v>
       </c>
       <c r="O4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="P4" t="n">
         <v>64508.99855490231</v>
@@ -26478,10 +26478,10 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567482</v>
       </c>
       <c r="F5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="G5" t="n">
         <v>45292.26111567481</v>
@@ -26490,28 +26490,28 @@
         <v>45292.26111567481</v>
       </c>
       <c r="I5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="J5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="K5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="L5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="M5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="N5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="O5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="P5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.26111567481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38311.96717789961</v>
+        <v>38311.9671778996</v>
       </c>
       <c r="C6" t="n">
+        <v>130230.7795456393</v>
+      </c>
+      <c r="D6" t="n">
         <v>130230.7795456395</v>
       </c>
-      <c r="D6" t="n">
-        <v>130230.7795456394</v>
-      </c>
       <c r="E6" t="n">
-        <v>-123055.7182662933</v>
+        <v>-129686.3046300282</v>
       </c>
       <c r="F6" t="n">
-        <v>233133.711620387</v>
+        <v>226503.125256652</v>
       </c>
       <c r="G6" t="n">
-        <v>233133.711620387</v>
+        <v>226503.1252566521</v>
       </c>
       <c r="H6" t="n">
-        <v>233133.7116203871</v>
+        <v>226503.1252566522</v>
       </c>
       <c r="I6" t="n">
-        <v>233133.7116203869</v>
+        <v>226503.1252566522</v>
       </c>
       <c r="J6" t="n">
-        <v>161368.9991323008</v>
+        <v>154738.412768566</v>
       </c>
       <c r="K6" t="n">
-        <v>233133.711620387</v>
+        <v>226503.125256652</v>
       </c>
       <c r="L6" t="n">
-        <v>233133.711620387</v>
+        <v>226503.1252566521</v>
       </c>
       <c r="M6" t="n">
-        <v>143517.6873218496</v>
+        <v>136887.1009581147</v>
       </c>
       <c r="N6" t="n">
-        <v>233133.7116203869</v>
+        <v>226503.1252566522</v>
       </c>
       <c r="O6" t="n">
-        <v>233133.7116203869</v>
+        <v>226503.1252566521</v>
       </c>
       <c r="P6" t="n">
-        <v>233133.7116203869</v>
+        <v>226503.1252566521</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.7051744303112</v>
       </c>
       <c r="F3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.7051744303112</v>
       </c>
       <c r="G3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303112</v>
       </c>
       <c r="H3" t="n">
         <v>309.7051744303112</v>
@@ -26761,16 +26761,16 @@
         <v>309.7051744303112</v>
       </c>
       <c r="J3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="K3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="L3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="M3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="N3" t="n">
         <v>309.7051744303112</v>
@@ -26798,10 +26798,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.8928998864151</v>
       </c>
       <c r="F4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
       <c r="G4" t="n">
         <v>633.892899886415</v>
@@ -26810,28 +26810,28 @@
         <v>633.892899886415</v>
       </c>
       <c r="I4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
       <c r="J4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="K4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="L4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="M4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
       <c r="N4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
       <c r="O4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
       <c r="P4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.892899886415</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.7051744303112</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416024</v>
+        <v>274.2838073416018</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>145.2824283201879</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -27393,13 +27393,13 @@
         <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>287.7623945819608</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.4396472771578</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>118.2464097780141</v>
       </c>
     </row>
     <row r="4">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,7 +27624,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>284.0389580842437</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
         <v>133.0100561389384</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27675,10 +27675,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27709,7 +27709,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>13.07916022616604</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>51.13049313817416</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
@@ -27821,7 +27821,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>148.2365678255776</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -27839,7 +27839,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27864,19 +27864,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>239.1366530568712</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>226.4830019426695</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>18.57021468023795</v>
+        <v>21.83037964467358</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28016,10 +28016,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>117.0670640461102</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>9.25243074600732</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -31758,7 +31758,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447065</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
@@ -31776,7 +31776,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
-        <v>209.776231993146</v>
+        <v>209.7762319931461</v>
       </c>
       <c r="P11" t="n">
         <v>179.0391606614946</v>
@@ -31785,16 +31785,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440416</v>
       </c>
       <c r="S11" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967123</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009796</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864269</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180278</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750428</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941456</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871069</v>
+        <v>62.9373505887107</v>
       </c>
       <c r="K12" t="n">
-        <v>107.5699566698185</v>
+        <v>107.5699566698186</v>
       </c>
       <c r="L12" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
-        <v>168.7893200645195</v>
+        <v>168.7893200645196</v>
       </c>
       <c r="N12" t="n">
         <v>173.2566711183304</v>
@@ -31861,7 +31861,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962054</v>
       </c>
       <c r="R12" t="n">
         <v>41.36024952108949</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759709</v>
       </c>
       <c r="H13" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899091</v>
       </c>
       <c r="I13" t="n">
-        <v>16.79515929533556</v>
+        <v>16.79515929533557</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286114</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015369</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136571</v>
+        <v>83.03144955136572</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363695</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074477</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167998</v>
       </c>
       <c r="P13" t="n">
         <v>67.54619082985012</v>
@@ -31946,7 +31946,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523053</v>
       </c>
       <c r="T13" t="n">
         <v>2.386252983315511</v>
@@ -31995,7 +31995,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447065</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32013,7 +32013,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O14" t="n">
-        <v>209.776231993146</v>
+        <v>209.7762319931461</v>
       </c>
       <c r="P14" t="n">
         <v>179.0391606614946</v>
@@ -32022,16 +32022,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440416</v>
       </c>
       <c r="S14" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967123</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009796</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864269</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180278</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750428</v>
       </c>
       <c r="I15" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941456</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871069</v>
+        <v>62.9373505887107</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5699566698185</v>
+        <v>107.5699566698186</v>
       </c>
       <c r="L15" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M15" t="n">
-        <v>168.7893200645195</v>
+        <v>168.7893200645196</v>
       </c>
       <c r="N15" t="n">
         <v>173.2566711183304</v>
@@ -32098,7 +32098,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962054</v>
       </c>
       <c r="R15" t="n">
         <v>41.36024952108949</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759709</v>
       </c>
       <c r="H16" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899091</v>
       </c>
       <c r="I16" t="n">
-        <v>16.79515929533556</v>
+        <v>16.79515929533557</v>
       </c>
       <c r="J16" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286114</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015369</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136571</v>
+        <v>83.03144955136572</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363695</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074477</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167998</v>
       </c>
       <c r="P16" t="n">
         <v>67.54619082985012</v>
@@ -32183,7 +32183,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523053</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447065</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
@@ -32241,34 +32241,34 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N17" t="n">
         <v>222.1566574333125</v>
       </c>
       <c r="O17" t="n">
-        <v>209.776231993146</v>
+        <v>209.7762319931461</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440416</v>
       </c>
       <c r="S17" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967123</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009796</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180278</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750428</v>
       </c>
       <c r="I18" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941456</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871067</v>
+        <v>62.9373505887107</v>
       </c>
       <c r="K18" t="n">
-        <v>107.5699566698185</v>
+        <v>107.5699566698186</v>
       </c>
       <c r="L18" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M18" t="n">
-        <v>168.7893200645195</v>
+        <v>168.7893200645196</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32335,19 +32335,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962054</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S18" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759709</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899091</v>
       </c>
       <c r="I19" t="n">
-        <v>16.79515929533556</v>
+        <v>16.79515929533557</v>
       </c>
       <c r="J19" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286114</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015369</v>
       </c>
       <c r="L19" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136572</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363695</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074477</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167998</v>
       </c>
       <c r="P19" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R19" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523053</v>
       </c>
       <c r="T19" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
@@ -32961,7 +32961,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O26" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P26" t="n">
         <v>179.0391606614946</v>
@@ -32970,16 +32970,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J27" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K27" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L27" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M27" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N27" t="n">
         <v>173.2566711183304</v>
@@ -33046,7 +33046,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R27" t="n">
         <v>41.36024952108949</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899091</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I28" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L28" t="n">
-        <v>83.03144955136572</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M28" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P28" t="n">
         <v>67.54619082985012</v>
@@ -33131,7 +33131,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T28" t="n">
         <v>2.386252983315511</v>
@@ -33180,7 +33180,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
@@ -33198,7 +33198,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O29" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P29" t="n">
         <v>179.0391606614946</v>
@@ -33207,16 +33207,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J30" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K30" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M30" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N30" t="n">
         <v>173.2566711183304</v>
@@ -33283,7 +33283,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R30" t="n">
         <v>41.36024952108949</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899091</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I31" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L31" t="n">
-        <v>83.03144955136572</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M31" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P31" t="n">
         <v>67.54619082985012</v>
@@ -33368,7 +33368,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T31" t="n">
         <v>2.386252983315511</v>
@@ -33417,7 +33417,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
@@ -33435,7 +33435,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O32" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P32" t="n">
         <v>179.0391606614946</v>
@@ -33444,16 +33444,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J33" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K33" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L33" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M33" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N33" t="n">
         <v>173.2566711183304</v>
@@ -33520,7 +33520,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R33" t="n">
         <v>41.36024952108949</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899091</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I34" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L34" t="n">
-        <v>83.03144955136572</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M34" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P34" t="n">
         <v>67.54619082985012</v>
@@ -33605,7 +33605,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T34" t="n">
         <v>2.386252983315511</v>
@@ -33654,7 +33654,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
@@ -33672,7 +33672,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O35" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P35" t="n">
         <v>179.0391606614946</v>
@@ -33681,16 +33681,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J36" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K36" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L36" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M36" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N36" t="n">
         <v>173.2566711183304</v>
@@ -33757,7 +33757,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R36" t="n">
         <v>41.36024952108949</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899091</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I37" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L37" t="n">
-        <v>83.03144955136572</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M37" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P37" t="n">
         <v>67.54619082985012</v>
@@ -33842,7 +33842,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T37" t="n">
         <v>2.386252983315511</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P3" t="n">
-        <v>138.7855675718737</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
@@ -35026,13 +35026,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>219.9611335109387</v>
       </c>
       <c r="P6" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
@@ -35260,16 +35260,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>137.9629839995269</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35412,10 +35412,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K11" t="n">
-        <v>280.8981351873249</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L11" t="n">
-        <v>400.9729937182839</v>
+        <v>400.972993718284</v>
       </c>
       <c r="M11" t="n">
         <v>461.5256681281614</v>
@@ -35427,7 +35427,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P11" t="n">
-        <v>288.2576462984487</v>
+        <v>288.2576462984488</v>
       </c>
       <c r="Q11" t="n">
         <v>138.5104960466976</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62.17602748516684</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299613</v>
       </c>
       <c r="M12" t="n">
-        <v>514.5419032905515</v>
+        <v>514.5419032905517</v>
       </c>
       <c r="N12" t="n">
-        <v>543.714571154376</v>
+        <v>428.0775398193794</v>
       </c>
       <c r="O12" t="n">
-        <v>429.0814793495699</v>
+        <v>429.08147934957</v>
       </c>
       <c r="P12" t="n">
         <v>327.7832499334201</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232034</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35649,10 +35649,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K14" t="n">
-        <v>280.8981351873249</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L14" t="n">
-        <v>400.9729937182839</v>
+        <v>400.972993718284</v>
       </c>
       <c r="M14" t="n">
         <v>461.5256681281614</v>
@@ -35664,7 +35664,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P14" t="n">
-        <v>288.2576462984487</v>
+        <v>288.2576462984488</v>
       </c>
       <c r="Q14" t="n">
         <v>138.5104960466976</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273584</v>
+        <v>51.39564078603566</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17602748516774</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299613</v>
       </c>
       <c r="M15" t="n">
-        <v>514.5419032905515</v>
+        <v>514.5419032905517</v>
       </c>
       <c r="N15" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
-        <v>429.0814793495699</v>
+        <v>429.08147934957</v>
       </c>
       <c r="P15" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232034</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35886,25 +35886,25 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K17" t="n">
-        <v>280.8981351873249</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L17" t="n">
-        <v>400.9729937182839</v>
+        <v>400.972993718284</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P17" t="n">
-        <v>288.2576462984487</v>
+        <v>288.2576462984488</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>70.40534134273585</v>
       </c>
       <c r="K18" t="n">
-        <v>132.5813688279036</v>
+        <v>62.17602748516727</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M18" t="n">
-        <v>514.5419032905515</v>
+        <v>514.5419032905517</v>
       </c>
       <c r="N18" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
-        <v>429.0814793495699</v>
+        <v>429.08147934957</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232034</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273585</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36454,10 +36454,10 @@
         <v>429.08147934957</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556869</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.3956407860364</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K26" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L26" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M26" t="n">
         <v>461.5256681281614</v>
@@ -36612,7 +36612,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q26" t="n">
         <v>138.5104960466976</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36682,19 +36682,19 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M27" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O27" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.3956407860364</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36834,10 +36834,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K29" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L29" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M29" t="n">
         <v>461.5256681281614</v>
@@ -36849,7 +36849,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q29" t="n">
         <v>138.5104960466976</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36919,19 +36919,19 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M30" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O30" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.3956407860364</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37071,10 +37071,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K32" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L32" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M32" t="n">
         <v>461.5256681281614</v>
@@ -37086,7 +37086,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q32" t="n">
         <v>138.5104960466976</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37156,19 +37156,19 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M33" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O33" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.3956407860364</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37308,10 +37308,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K35" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L35" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M35" t="n">
         <v>461.5256681281614</v>
@@ -37323,7 +37323,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q35" t="n">
         <v>138.5104960466976</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5813688279036</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299613</v>
       </c>
       <c r="M36" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766434</v>
       </c>
       <c r="O36" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
         <v>327.7832499334201</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5813688279036</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299613</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603594</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>288.2576462984488</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466971</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.39564078603612</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>51.39564078603594</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425414</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873252</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L44" t="n">
         <v>400.972993718284</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5813688279036</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299613</v>
@@ -38116,7 +38116,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603594</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
